--- a/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/2 PROCEDIMIENTOS  ANALITICOS/9 CUESTIONARIO DE EVALUACION GENERAL.xlsx
+++ b/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/2 PROCEDIMIENTOS  ANALITICOS/9 CUESTIONARIO DE EVALUACION GENERAL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base\2 ESTRATEGIA Y PLAN DE AUDITORIA\2 PROCEDIMIENTOS  ANALITICOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\2 ESTRATEGIA Y PLAN DE AUDITORIA\2 PROCEDIMIENTOS  ANALITICOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54502055-28DF-4CB1-8AB5-2CB49CA4ED46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCE2B49-8F2C-45F3-85F5-0D55B5B21F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -202,7 +202,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +315,13 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="15"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -390,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -467,6 +474,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -752,7 +762,7 @@
   <dimension ref="B2:P86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,11 +807,11 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="2:16" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="3"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
